--- a/gists_content_quantitative_analysis/analyze_gist_files_metadata_result.xlsx
+++ b/gists_content_quantitative_analysis/analyze_gist_files_metadata_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="size_log" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="MIME type" sheetId="2" r:id="rId5"/>
     <sheet name="language" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1220,6 +1220,3936 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>size_log!$B$1:$AD$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>size_log!$B$2:$AD$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1.1512919999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4510809999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6201440000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0649270000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5906000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0279861999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5740535999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.108565282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22476385300000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.402132031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60461574699999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77299906399999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88290584000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93716769700000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96319897799999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97625996500000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98471830500000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99047728199999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99399413800000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99654864499999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99829825500000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99923793100000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99966494100000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99983876900000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99994583599999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99997606699999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99998740399999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99999496200000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99999874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="314664048"/>
+        <c:axId val="314667968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="314664048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Gist files size (log2 scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314667968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314667968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Cumulative</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Proportion of Gist files</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314664048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>text_files_lines_log2!$B$1:$S$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>text_files_lines_log2!$B$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>6.1037167156458398E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8547118313448003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.124078608395482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22093611089125001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38971513775873601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60326096669841101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78642608569101502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90270845088762497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95541064639754103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97812788034611398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98807137768949205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99324163885787697</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99619187924307895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99803657736363804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99930935523643905</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99984042403792805</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99996042516134198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99999872339221896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="342989928"/>
+        <c:axId val="342986792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="342989928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342986792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="342986792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342989928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'MIME type'!$B$1:$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>text/plain</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>application/javascript</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>application/x-ruby</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>application/x-python</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>application/x-sh</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>application/x-httpd-php</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text/html</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>application/json</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text/css</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>application/xml</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text/x-coffescript</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>application/x-perl</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>image/png</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text/x-yaml</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>image/gif</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>application/x-msdos-program</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text/csv</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>image/jpeg</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text/prs.fallenstein.rst</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>application/x-tex</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MIME type'!$B$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="439128352"/>
+        <c:axId val="439128744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="439128352"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439128744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="439128744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439128352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>language!$B$1:$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ruby</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>JavaScript</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Shell</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Markdown</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PHP</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HTML</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>JSON</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CSS</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>XML</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Diff</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Objective-C</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Scala</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>CoffeeScript</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Perl</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Clojure</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Haskell</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>SQL</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>YAML</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Go</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>VimL</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>SCSS</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Emacs Lisp</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Groovy</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>R</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>language!$B$2:$AF$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.27939855699999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10214374499999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7169511E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6253313999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3008536000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6335076000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4776928000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7278417000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7013783999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8503800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.724796E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6732776000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5479455E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3144121999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2812842E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2019281999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1996609E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1145107E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0177719999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2481209999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.8009560000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.9316819999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0826989999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.9931289999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.9780129999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5333680000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.8279809999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5433079999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3745189999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.314057E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.7734625999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="347947904"/>
+        <c:axId val="347945944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="347947904"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347945944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="347945944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347947904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1509,8 +5439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1704,6 +5634,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1712,7 +5643,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1840,6 +5771,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -71797,8 +75729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -71818,7 +75750,7 @@
   <dimension ref="A1:DK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -72519,6 +76451,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -72527,7 +76460,7 @@
   <dimension ref="A1:IX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74089,5 +78022,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>